--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H2">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I2">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J2">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>7.317531487482</v>
+        <v>63.08213153191734</v>
       </c>
       <c r="R2">
-        <v>65.857783387338</v>
+        <v>567.739183787256</v>
       </c>
       <c r="S2">
-        <v>0.0003641304760368077</v>
+        <v>0.002340652862621671</v>
       </c>
       <c r="T2">
-        <v>0.0003641304760368078</v>
+        <v>0.00234065286262167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H3">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I3">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J3">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>598.4200376924846</v>
+        <v>983.6733320389824</v>
       </c>
       <c r="R3">
-        <v>5385.780339232361</v>
+        <v>8853.05998835084</v>
       </c>
       <c r="S3">
-        <v>0.02977820779694524</v>
+        <v>0.03649904885279104</v>
       </c>
       <c r="T3">
-        <v>0.02977820779694525</v>
+        <v>0.03649904885279103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H4">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I4">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J4">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>555.6175283048507</v>
+        <v>1163.861950554139</v>
       </c>
       <c r="R4">
-        <v>5000.557754743657</v>
+        <v>10474.75755498725</v>
       </c>
       <c r="S4">
-        <v>0.02764829579785768</v>
+        <v>0.04318492004162285</v>
       </c>
       <c r="T4">
-        <v>0.02764829579785768</v>
+        <v>0.04318492004162285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H5">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I5">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J5">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>96.23681005922489</v>
+        <v>111.0677342456865</v>
       </c>
       <c r="R5">
-        <v>866.1312905330241</v>
+        <v>999.6096082111781</v>
       </c>
       <c r="S5">
-        <v>0.004788876620357092</v>
+        <v>0.00412115132754404</v>
       </c>
       <c r="T5">
-        <v>0.004788876620357093</v>
+        <v>0.00412115132754404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H6">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I6">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J6">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>224.1905850082189</v>
+        <v>376.4857347431607</v>
       </c>
       <c r="R6">
-        <v>2017.71526507397</v>
+        <v>3388.371612688446</v>
       </c>
       <c r="S6">
-        <v>0.01115603323083261</v>
+        <v>0.01396944572674965</v>
       </c>
       <c r="T6">
-        <v>0.01115603323083261</v>
+        <v>0.01396944572674965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.183715333333334</v>
+        <v>6.877124666666667</v>
       </c>
       <c r="H7">
-        <v>12.551146</v>
+        <v>20.631374</v>
       </c>
       <c r="I7">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="J7">
-        <v>0.09990620261132242</v>
+        <v>0.161890316688709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>525.9230732109548</v>
+        <v>1664.879449630636</v>
       </c>
       <c r="R7">
-        <v>4733.307658898593</v>
+        <v>14983.91504667572</v>
       </c>
       <c r="S7">
-        <v>0.02617065868929299</v>
+        <v>0.06177509787737978</v>
       </c>
       <c r="T7">
-        <v>0.02617065868929299</v>
+        <v>0.06177509787737978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>72.570502</v>
       </c>
       <c r="I8">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J8">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>42.309836364534</v>
+        <v>221.8903090264987</v>
       </c>
       <c r="R8">
-        <v>380.788527280806</v>
+        <v>1997.012781238488</v>
       </c>
       <c r="S8">
-        <v>0.002105395908826979</v>
+        <v>0.008233206050561229</v>
       </c>
       <c r="T8">
-        <v>0.00210539590882698</v>
+        <v>0.008233206050561229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>72.570502</v>
       </c>
       <c r="I9">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J9">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>3460.053969749259</v>
@@ -1013,10 +1013,10 @@
         <v>31140.48572774333</v>
       </c>
       <c r="S9">
-        <v>0.1721770656229025</v>
+        <v>0.1283847744590142</v>
       </c>
       <c r="T9">
-        <v>0.1721770656229026</v>
+        <v>0.1283847744590142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>72.570502</v>
       </c>
       <c r="I10">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J10">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>3212.570624951875</v>
+        <v>4093.864325779418</v>
       </c>
       <c r="R10">
-        <v>28913.13562456688</v>
+        <v>36844.77893201476</v>
       </c>
       <c r="S10">
-        <v>0.1598619524858544</v>
+        <v>0.1519022109846116</v>
       </c>
       <c r="T10">
-        <v>0.1598619524858544</v>
+        <v>0.1519022109846116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>72.570502</v>
       </c>
       <c r="I11">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J11">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>556.4395169075876</v>
+        <v>390.6788384628216</v>
       </c>
       <c r="R11">
-        <v>5007.955652168288</v>
+        <v>3516.109546165394</v>
       </c>
       <c r="S11">
-        <v>0.02768919908631273</v>
+        <v>0.01449607867405425</v>
       </c>
       <c r="T11">
-        <v>0.02768919908631273</v>
+        <v>0.01449607867405425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>72.570502</v>
       </c>
       <c r="I12">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J12">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>1296.265958321266</v>
+        <v>1324.282074773595</v>
       </c>
       <c r="R12">
-        <v>11666.39362489139</v>
+        <v>11918.53867296236</v>
       </c>
       <c r="S12">
-        <v>0.06450398488633662</v>
+        <v>0.04913728426676656</v>
       </c>
       <c r="T12">
-        <v>0.06450398488633663</v>
+        <v>0.04913728426676656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>72.570502</v>
       </c>
       <c r="I13">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="J13">
-        <v>0.57765587910597</v>
+        <v>0.5694463951377445</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>3040.877815962123</v>
+        <v>5856.184732494257</v>
       </c>
       <c r="R13">
-        <v>27367.90034365911</v>
+        <v>52705.66259244831</v>
       </c>
       <c r="S13">
-        <v>0.1513182811157367</v>
+        <v>0.2172928407027367</v>
       </c>
       <c r="T13">
-        <v>0.1513182811157367</v>
+        <v>0.2172928407027367</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.794139333333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H14">
-        <v>8.382417999999999</v>
+        <v>3.979372</v>
       </c>
       <c r="I14">
-        <v>0.06672343314951448</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J14">
-        <v>0.06672343314951447</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>4.887092195106</v>
+        <v>12.16725885141867</v>
       </c>
       <c r="R14">
-        <v>43.983829755954</v>
+        <v>109.505329662768</v>
       </c>
       <c r="S14">
-        <v>0.0002431884591797041</v>
+        <v>0.0004514642826617617</v>
       </c>
       <c r="T14">
-        <v>0.0002431884591797041</v>
+        <v>0.0004514642826617617</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.794139333333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H15">
-        <v>8.382417999999999</v>
+        <v>3.979372</v>
       </c>
       <c r="I15">
-        <v>0.06672343314951448</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J15">
-        <v>0.06672343314951447</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>399.6612656337645</v>
+        <v>189.7305586463911</v>
       </c>
       <c r="R15">
-        <v>3596.95139070388</v>
+        <v>1707.57502781752</v>
       </c>
       <c r="S15">
-        <v>0.0198876967127029</v>
+        <v>0.007039923421068746</v>
       </c>
       <c r="T15">
-        <v>0.0198876967127029</v>
+        <v>0.007039923421068745</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.794139333333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H16">
-        <v>8.382417999999999</v>
+        <v>3.979372</v>
       </c>
       <c r="I16">
-        <v>0.06672343314951448</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J16">
-        <v>0.06672343314951447</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>371.0751488651387</v>
+        <v>224.4852746065542</v>
       </c>
       <c r="R16">
-        <v>3339.676339786248</v>
+        <v>2020.367471458988</v>
       </c>
       <c r="S16">
-        <v>0.01846521205038062</v>
+        <v>0.008329491852354223</v>
       </c>
       <c r="T16">
-        <v>0.01846521205038062</v>
+        <v>0.008329491852354223</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.794139333333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H17">
-        <v>8.382417999999999</v>
+        <v>3.979372</v>
       </c>
       <c r="I17">
-        <v>0.06672343314951448</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J17">
-        <v>0.06672343314951447</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>64.27278982357689</v>
+        <v>21.42270465169823</v>
       </c>
       <c r="R17">
-        <v>578.455108412192</v>
+        <v>192.804341865284</v>
       </c>
       <c r="S17">
-        <v>0.003198302814919088</v>
+        <v>0.0007948861864746178</v>
       </c>
       <c r="T17">
-        <v>0.003198302814919088</v>
+        <v>0.0007948861864746177</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.794139333333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H18">
-        <v>8.382417999999999</v>
+        <v>3.979372</v>
       </c>
       <c r="I18">
-        <v>0.06672343314951448</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J18">
-        <v>0.06672343314951447</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>149.7280961597789</v>
+        <v>72.61643316806534</v>
       </c>
       <c r="R18">
-        <v>1347.55286543801</v>
+        <v>653.5478985125881</v>
       </c>
       <c r="S18">
-        <v>0.007450676915297568</v>
+        <v>0.002694421669664231</v>
       </c>
       <c r="T18">
-        <v>0.007450676915297568</v>
+        <v>0.002694421669664231</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.794139333333333</v>
+        <v>1.326457333333333</v>
       </c>
       <c r="H19">
-        <v>8.382417999999999</v>
+        <v>3.979372</v>
       </c>
       <c r="I19">
-        <v>0.06672343314951448</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="J19">
-        <v>0.06672343314951447</v>
+        <v>0.03122534608224257</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>351.2433872969708</v>
+        <v>321.1213497092129</v>
       </c>
       <c r="R19">
-        <v>3161.190485672736</v>
+        <v>2890.092147382916</v>
       </c>
       <c r="S19">
-        <v>0.01747835619703459</v>
+        <v>0.011915158670019</v>
       </c>
       <c r="T19">
-        <v>0.01747835619703459</v>
+        <v>0.011915158670019</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.036584666666666</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H20">
-        <v>15.109754</v>
+        <v>13.603937</v>
       </c>
       <c r="I20">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J20">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>8.809243447817998</v>
+        <v>41.59516196962534</v>
       </c>
       <c r="R20">
-        <v>79.28319103036199</v>
+        <v>374.356457726628</v>
       </c>
       <c r="S20">
-        <v>0.0004383601239933835</v>
+        <v>0.001543382136447861</v>
       </c>
       <c r="T20">
-        <v>0.0004383601239933835</v>
+        <v>0.001543382136447861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.036584666666666</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H21">
-        <v>15.109754</v>
+        <v>13.603937</v>
       </c>
       <c r="I21">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J21">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>720.4106747068489</v>
+        <v>648.615552102269</v>
       </c>
       <c r="R21">
-        <v>6483.69607236164</v>
+        <v>5837.539968920421</v>
       </c>
       <c r="S21">
-        <v>0.03584863042567783</v>
+        <v>0.02406678106621941</v>
       </c>
       <c r="T21">
-        <v>0.03584863042567783</v>
+        <v>0.02406678106621941</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.036584666666666</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H22">
-        <v>15.109754</v>
+        <v>13.603937</v>
       </c>
       <c r="I22">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J22">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>668.8826797787493</v>
+        <v>767.4285121308749</v>
       </c>
       <c r="R22">
-        <v>6019.944118008744</v>
+        <v>6906.856609177874</v>
       </c>
       <c r="S22">
-        <v>0.03328452621177884</v>
+        <v>0.02847531781432853</v>
       </c>
       <c r="T22">
-        <v>0.03328452621177884</v>
+        <v>0.02847531781432853</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.036584666666666</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H23">
-        <v>15.109754</v>
+        <v>13.603937</v>
       </c>
       <c r="I23">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J23">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>115.8551199818418</v>
+        <v>73.23595895314878</v>
       </c>
       <c r="R23">
-        <v>1042.696079836576</v>
+        <v>659.123630578339</v>
       </c>
       <c r="S23">
-        <v>0.005765110824935592</v>
+        <v>0.002717409079365024</v>
       </c>
       <c r="T23">
-        <v>0.005765110824935592</v>
+        <v>0.002717409079365023</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.036584666666666</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H24">
-        <v>15.109754</v>
+        <v>13.603937</v>
       </c>
       <c r="I24">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J24">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>269.8928519029478</v>
+        <v>248.2475581531637</v>
       </c>
       <c r="R24">
-        <v>2429.03566712653</v>
+        <v>2234.228023378473</v>
       </c>
       <c r="S24">
-        <v>0.01343024116950802</v>
+        <v>0.009211187756647785</v>
       </c>
       <c r="T24">
-        <v>0.01343024116950802</v>
+        <v>0.009211187756647785</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.036584666666666</v>
+        <v>4.534645666666667</v>
       </c>
       <c r="H25">
-        <v>15.109754</v>
+        <v>13.603937</v>
       </c>
       <c r="I25">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="J25">
-        <v>0.1202725348371566</v>
+        <v>0.1067474066023545</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>633.1348754242454</v>
+        <v>1097.78995550029</v>
       </c>
       <c r="R25">
-        <v>5698.213878818208</v>
+        <v>9880.109599502612</v>
       </c>
       <c r="S25">
-        <v>0.03150566608126298</v>
+        <v>0.04073332874934593</v>
       </c>
       <c r="T25">
-        <v>0.03150566608126297</v>
+        <v>0.04073332874934593</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.286464333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H26">
-        <v>3.859393</v>
+        <v>2.761776</v>
       </c>
       <c r="I26">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J26">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>2.250091728681</v>
+        <v>8.444358426816001</v>
       </c>
       <c r="R26">
-        <v>20.250825558129</v>
+        <v>75.99922584134399</v>
       </c>
       <c r="S26">
-        <v>0.0001119676729362501</v>
+        <v>0.0003133266306121844</v>
       </c>
       <c r="T26">
-        <v>0.0001119676729362501</v>
+        <v>0.0003133266306121844</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.286464333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H27">
-        <v>3.859393</v>
+        <v>2.761776</v>
       </c>
       <c r="I27">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J27">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>184.0101377619312</v>
+        <v>131.67738611424</v>
       </c>
       <c r="R27">
-        <v>1656.09123985738</v>
+        <v>1185.09647502816</v>
       </c>
       <c r="S27">
-        <v>0.009156598666295165</v>
+        <v>0.004885869314591738</v>
       </c>
       <c r="T27">
-        <v>0.009156598666295167</v>
+        <v>0.004885869314591737</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.286464333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H28">
-        <v>3.859393</v>
+        <v>2.761776</v>
       </c>
       <c r="I28">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J28">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>170.8486539330387</v>
+        <v>155.797961025456</v>
       </c>
       <c r="R28">
-        <v>1537.637885397348</v>
+        <v>1402.181649229104</v>
       </c>
       <c r="S28">
-        <v>0.00850166504828972</v>
+        <v>0.005780859565285034</v>
       </c>
       <c r="T28">
-        <v>0.00850166504828972</v>
+        <v>0.005780859565285034</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.286464333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H29">
-        <v>3.859393</v>
+        <v>2.761776</v>
       </c>
       <c r="I29">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J29">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>29.59217198851022</v>
+        <v>14.867851400208</v>
       </c>
       <c r="R29">
-        <v>266.329547896592</v>
+        <v>133.810662601872</v>
       </c>
       <c r="S29">
-        <v>0.001472547359935883</v>
+        <v>0.0005516693570083731</v>
       </c>
       <c r="T29">
-        <v>0.001472547359935883</v>
+        <v>0.0005516693570083731</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.286464333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H30">
-        <v>3.859393</v>
+        <v>2.761776</v>
       </c>
       <c r="I30">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J30">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>68.93709741298723</v>
+        <v>50.397480388656</v>
       </c>
       <c r="R30">
-        <v>620.433876716885</v>
+        <v>453.577323497904</v>
       </c>
       <c r="S30">
-        <v>0.003430405204340923</v>
+        <v>0.001869990817937755</v>
       </c>
       <c r="T30">
-        <v>0.003430405204340923</v>
+        <v>0.001869990817937755</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.286464333333333</v>
+        <v>0.920592</v>
       </c>
       <c r="H31">
-        <v>3.859393</v>
+        <v>2.761776</v>
       </c>
       <c r="I31">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="J31">
-        <v>0.03072048552496477</v>
+        <v>0.02167111076864178</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>161.7178086597707</v>
+        <v>222.865627218192</v>
       </c>
       <c r="R31">
-        <v>1455.460277937936</v>
+        <v>2005.790644963728</v>
       </c>
       <c r="S31">
-        <v>0.008047301573166828</v>
+        <v>0.008269395083206692</v>
       </c>
       <c r="T31">
-        <v>0.008047301573166828</v>
+        <v>0.008269395083206692</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.385361333333333</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H32">
-        <v>13.156084</v>
+        <v>13.893484</v>
       </c>
       <c r="I32">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J32">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>7.670220625427999</v>
+        <v>42.48047585801067</v>
       </c>
       <c r="R32">
-        <v>69.031985628852</v>
+        <v>382.324282722096</v>
       </c>
       <c r="S32">
-        <v>0.0003816807747834524</v>
+        <v>0.001576231573155931</v>
       </c>
       <c r="T32">
-        <v>0.0003816807747834525</v>
+        <v>0.001576231573155931</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.385361333333333</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H33">
-        <v>13.156084</v>
+        <v>13.893484</v>
       </c>
       <c r="I33">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J33">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>627.2625848799378</v>
+        <v>662.4207238892712</v>
       </c>
       <c r="R33">
-        <v>5645.36326391944</v>
+        <v>5961.78651500344</v>
       </c>
       <c r="S33">
-        <v>0.03121345279116875</v>
+        <v>0.02457901985837059</v>
       </c>
       <c r="T33">
-        <v>0.03121345279116876</v>
+        <v>0.02457901985837058</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.385361333333333</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H34">
-        <v>13.156084</v>
+        <v>13.893484</v>
       </c>
       <c r="I34">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J34">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>582.3970874254026</v>
+        <v>783.7625059888264</v>
       </c>
       <c r="R34">
-        <v>5241.573786828624</v>
+        <v>7053.862553899437</v>
       </c>
       <c r="S34">
-        <v>0.02898088365584008</v>
+        <v>0.02908138816346242</v>
       </c>
       <c r="T34">
-        <v>0.02898088365584008</v>
+        <v>0.02908138816346242</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.385361333333333</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H35">
-        <v>13.156084</v>
+        <v>13.893484</v>
       </c>
       <c r="I35">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J35">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>100.8752154608995</v>
+        <v>74.79471743659424</v>
       </c>
       <c r="R35">
-        <v>907.876939148096</v>
+        <v>673.152456929348</v>
       </c>
       <c r="S35">
-        <v>0.00501969008113315</v>
+        <v>0.002775246574988747</v>
       </c>
       <c r="T35">
-        <v>0.005019690081133151</v>
+        <v>0.002775246574988747</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.385361333333333</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H36">
-        <v>13.156084</v>
+        <v>13.893484</v>
       </c>
       <c r="I36">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J36">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>234.9960846903755</v>
+        <v>253.5312738687374</v>
       </c>
       <c r="R36">
-        <v>2114.96476221338</v>
+        <v>2281.781464818636</v>
       </c>
       <c r="S36">
-        <v>0.0116937298228883</v>
+        <v>0.009407239221850402</v>
       </c>
       <c r="T36">
-        <v>0.0116937298228883</v>
+        <v>0.009407239221850402</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.385361333333333</v>
+        <v>4.631161333333334</v>
       </c>
       <c r="H37">
-        <v>13.156084</v>
+        <v>13.893484</v>
       </c>
       <c r="I37">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="J37">
-        <v>0.1047214647710717</v>
+        <v>0.1090194247203076</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>551.2714240358188</v>
+        <v>1121.155381865117</v>
       </c>
       <c r="R37">
-        <v>4961.442816322369</v>
+        <v>10090.39843678605</v>
       </c>
       <c r="S37">
-        <v>0.02743202764525792</v>
+        <v>0.04160029932847952</v>
       </c>
       <c r="T37">
-        <v>0.02743202764525792</v>
+        <v>0.04160029932847952</v>
       </c>
     </row>
   </sheetData>
